--- a/Document/Structure.xlsx
+++ b/Document/Structure.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,10 @@
   </si>
   <si>
     <t>CrDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsRead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,7 +732,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F34:F35"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -974,7 +978,7 @@
         <v>63</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>80</v>
@@ -997,7 +1001,7 @@
         <v>67</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>81</v>
@@ -1020,7 +1024,7 @@
         <v>68</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -1035,6 +1039,9 @@
       </c>
       <c r="G21" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">

--- a/Document/Structure.xlsx
+++ b/Document/Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,22 @@
   </si>
   <si>
     <t>IsRead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论的时候，得有回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论的时候，得限制次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置顶功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有没有喜欢本文章的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -1087,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1135,6 +1151,38 @@
         <v>77</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Structure.xlsx
+++ b/Document/Structure.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
-    <sheet name="Note" sheetId="2" r:id="rId2"/>
+    <sheet name="Diagram" sheetId="3" r:id="rId2"/>
+    <sheet name="Note" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,23 +380,65 @@
   <si>
     <t>有没有喜欢本文章的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleTypeId(#9#,#19#)</t>
+  </si>
+  <si>
+    <t>IsDelete</t>
+  </si>
+  <si>
+    <t>ToUserId</t>
+  </si>
+  <si>
+    <t>IsSystem</t>
+  </si>
+  <si>
+    <t>FollowId(string)</t>
+  </si>
+  <si>
+    <t>BlackId(string)</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>LetterId</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>IsRead</t>
+  </si>
+  <si>
+    <t>CrDate</t>
+  </si>
+  <si>
+    <t>CrUserId</t>
+  </si>
+  <si>
+    <t>ListId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -403,7 +446,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -411,7 +454,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -425,7 +468,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -433,14 +476,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,6 +516,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="2019300"/>
+          <a:ext cx="600075" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8096250" y="2009775"/>
+          <a:ext cx="581025" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8086725" y="1981200"/>
+          <a:ext cx="609600" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,23 +945,23 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="J15" sqref="J15:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -778,7 +975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -792,7 +989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -806,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -820,7 +1017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,7 +1028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -842,7 +1039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -850,38 +1047,38 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -913,7 +1110,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -945,7 +1142,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -977,7 +1174,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1003,7 +1200,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1026,7 +1223,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1043,7 +1240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1060,7 +1257,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1074,22 +1271,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1103,15 +1300,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="B10:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14">
+      <c r="B10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="J11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="J12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="L13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="L14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="L15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="L16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="L17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="L18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="L19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="H20" s="1"/>
+      <c r="L20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="H21" s="1"/>
+      <c r="N21" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="H22" s="1"/>
+      <c r="N22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="N23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1119,7 +1520,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1127,7 +1528,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1135,7 +1536,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1143,7 +1544,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1151,7 +1552,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1159,7 +1560,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1167,7 +1568,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1175,12 +1576,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Structure.xlsx
+++ b/Document/Structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,17 +428,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -446,7 +446,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -454,7 +454,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -567,15 +567,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -584,8 +584,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8096250" y="2009775"/>
-          <a:ext cx="581025" cy="180975"/>
+          <a:off x="10563226" y="1819276"/>
+          <a:ext cx="666749" cy="171449"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -630,6 +630,50 @@
         <a:xfrm>
           <a:off x="8086725" y="1981200"/>
           <a:ext cx="609600" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124825" y="5048250"/>
+          <a:ext cx="685800" cy="28576"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -945,23 +989,23 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:J19"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -975,7 +1019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -989,7 +1033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1017,7 +1061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1028,7 +1072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1039,7 +1083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1047,38 +1091,38 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1110,7 +1154,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1142,7 +1186,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1174,7 +1218,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1200,7 +1244,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1223,7 +1267,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1240,7 +1284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1257,7 +1301,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1271,22 +1315,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1300,22 +1344,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B10:N23"/>
+  <dimension ref="B10:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>97</v>
       </c>
@@ -1335,7 +1381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>98</v>
       </c>
@@ -1356,7 +1402,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>99</v>
       </c>
@@ -1377,7 +1423,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1395,7 +1441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>100</v>
       </c>
@@ -1413,7 +1459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>94</v>
       </c>
@@ -1423,7 +1469,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>101</v>
       </c>
@@ -1433,7 +1479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>92</v>
       </c>
@@ -1446,7 +1492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>102</v>
       </c>
@@ -1458,7 +1504,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>103</v>
       </c>
@@ -1470,7 +1516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H20" s="1"/>
       <c r="L20" s="4" t="s">
         <v>27</v>
@@ -1479,26 +1525,144 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H21" s="1"/>
       <c r="N21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H22" s="1"/>
       <c r="N22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="N23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.15">
+      <c r="J33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.15">
+      <c r="J34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.15">
+      <c r="J35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.15">
+      <c r="L36" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14" x14ac:dyDescent="0.15">
+      <c r="L37" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14" x14ac:dyDescent="0.15">
+      <c r="L38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="10:14" x14ac:dyDescent="0.15">
+      <c r="L39" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="10:14" x14ac:dyDescent="0.15">
+      <c r="L40" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="10:14" x14ac:dyDescent="0.15">
+      <c r="L41" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1507,12 +1671,12 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1520,7 +1684,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1528,7 +1692,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1536,7 +1700,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1544,7 +1708,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1552,7 +1716,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1560,7 +1724,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1568,7 +1732,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1576,7 +1740,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1584,7 +1748,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>11</v>
       </c>

--- a/Document/Structure.xlsx
+++ b/Document/Structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,23 +422,26 @@
   </si>
   <si>
     <t>ListId</t>
+  </si>
+  <si>
+    <t>Favorite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -446,7 +449,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -454,7 +457,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -992,20 +995,20 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1091,38 +1094,38 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1244,7 +1247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1315,22 +1318,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1346,22 +1349,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14">
       <c r="B10" s="3" t="s">
         <v>97</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14">
       <c r="B11" s="4" t="s">
         <v>98</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14">
       <c r="B12" s="4" t="s">
         <v>99</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14">
       <c r="B13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14">
       <c r="B14" s="4" t="s">
         <v>100</v>
       </c>
@@ -1459,52 +1462,52 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14">
       <c r="B15" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="1"/>
       <c r="H15" s="1"/>
       <c r="L15" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
       <c r="B16" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D16" s="1"/>
       <c r="H16" s="1"/>
       <c r="L16" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D17" s="1"/>
       <c r="H17" s="1"/>
       <c r="L17" s="4" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16">
       <c r="B18" s="4" t="s">
         <v>102</v>
       </c>
       <c r="H18" s="1"/>
       <c r="L18" s="4" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16">
       <c r="B19" s="4" t="s">
         <v>103</v>
       </c>
@@ -1516,7 +1519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16">
       <c r="H20" s="1"/>
       <c r="L20" s="4" t="s">
         <v>27</v>
@@ -1525,24 +1528,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16">
       <c r="H21" s="1"/>
       <c r="N21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:16">
       <c r="H22" s="1"/>
       <c r="N22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="N23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="J29" s="3" t="s">
         <v>52</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="J30" s="4" t="s">
         <v>1</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16">
       <c r="J31" s="4" t="s">
         <v>54</v>
       </c>
@@ -1584,7 +1587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="J32" s="4" t="s">
         <v>55</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="10:14">
       <c r="J33" s="4" t="s">
         <v>56</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="10:14">
       <c r="J34" s="4" t="s">
         <v>33</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="10:14">
       <c r="J35" s="4" t="s">
         <v>13</v>
       </c>
@@ -1628,32 +1631,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="10:14">
       <c r="L36" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="10:14">
       <c r="L37" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="10:14">
       <c r="L38" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="10:14">
       <c r="L39" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="10:14">
       <c r="L40" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="10:14">
       <c r="L41" s="4" t="s">
         <v>25</v>
       </c>
@@ -1674,9 +1677,9 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1684,7 +1687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1700,7 +1703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1716,7 +1719,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1724,7 +1727,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>11</v>
       </c>

--- a/Document/Structure.xlsx
+++ b/Document/Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +425,42 @@
   </si>
   <si>
     <t>Favorite</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>LoginRegion</t>
+  </si>
+  <si>
+    <t>LoginDate</t>
+  </si>
+  <si>
+    <t>ArticleId</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>UpDate</t>
+  </si>
+  <si>
+    <t>UpUserId</t>
+  </si>
+  <si>
+    <t>需要一个喜爱文章得表</t>
   </si>
 </sst>
 </file>
@@ -1349,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1399,7 +1435,7 @@
         <v>47</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>29</v>
@@ -1420,7 +1456,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>21</v>
@@ -1438,7 +1474,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="L13" s="4" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="N13" s="4" t="s">
         <v>92</v>
@@ -1513,7 +1549,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="L19" s="4" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>34</v>
@@ -1522,7 +1558,7 @@
     <row r="20" spans="2:16">
       <c r="H20" s="1"/>
       <c r="L20" s="4" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>21</v>
@@ -1581,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>12</v>
@@ -1589,13 +1625,13 @@
     </row>
     <row r="32" spans="2:16">
       <c r="J32" s="4" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>13</v>
@@ -1603,18 +1639,18 @@
     </row>
     <row r="33" spans="10:14">
       <c r="J33" s="4" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="10:14">
       <c r="J34" s="4" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>19</v>
@@ -1625,7 +1661,7 @@
     </row>
     <row r="35" spans="10:14">
       <c r="J35" s="4" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>5</v>
@@ -1673,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1755,6 +1791,9 @@
       <c r="A10">
         <v>11</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/Structure.xlsx
+++ b/Document/Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -1385,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Document/Structure.xlsx
+++ b/Document/Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="119">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,23 +461,27 @@
   </si>
   <si>
     <t>需要一个喜爱文章得表</t>
+  </si>
+  <si>
+    <t>EF是否存在注入的问题？需要测试一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -485,7 +489,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -493,7 +497,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1031,20 +1035,20 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1086,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1122,7 +1126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1130,38 +1134,38 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1257,7 +1261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1323,7 +1327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1340,7 +1344,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1354,22 +1358,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1385,22 +1389,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>97</v>
       </c>
@@ -1420,7 +1424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>98</v>
       </c>
@@ -1441,7 +1445,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>99</v>
       </c>
@@ -1462,7 +1466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1480,7 +1484,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>100</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>94</v>
       </c>
@@ -1508,7 +1512,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>101</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>92</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>102</v>
       </c>
@@ -1543,7 +1547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>103</v>
       </c>
@@ -1555,7 +1559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H20" s="1"/>
       <c r="L20" s="4" t="s">
         <v>116</v>
@@ -1564,24 +1568,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H21" s="1"/>
       <c r="N21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H22" s="1"/>
       <c r="N22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="N23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="J29" s="3" t="s">
         <v>52</v>
       </c>
@@ -1595,7 +1599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="J30" s="4" t="s">
         <v>1</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
       <c r="J31" s="4" t="s">
         <v>54</v>
       </c>
@@ -1623,7 +1627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="J32" s="4" t="s">
         <v>107</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="10:14">
+    <row r="33" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J33" s="4" t="s">
         <v>108</v>
       </c>
@@ -1648,7 +1652,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="10:14">
+    <row r="34" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J34" s="4" t="s">
         <v>105</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="10:14">
+    <row r="35" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J35" s="4" t="s">
         <v>109</v>
       </c>
@@ -1667,32 +1671,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="10:14">
+    <row r="36" spans="10:14" x14ac:dyDescent="0.15">
       <c r="L36" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="10:14">
+    <row r="37" spans="10:14" x14ac:dyDescent="0.15">
       <c r="L37" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="10:14">
+    <row r="38" spans="10:14" x14ac:dyDescent="0.15">
       <c r="L38" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="10:14">
+    <row r="39" spans="10:14" x14ac:dyDescent="0.15">
       <c r="L39" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="10:14">
+    <row r="40" spans="10:14" x14ac:dyDescent="0.15">
       <c r="L40" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="10:14">
+    <row r="41" spans="10:14" x14ac:dyDescent="0.15">
       <c r="L41" s="4" t="s">
         <v>25</v>
       </c>
@@ -1707,15 +1711,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1731,7 +1735,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1747,7 +1751,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1763,7 +1767,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1771,7 +1775,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1787,12 +1791,20 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Structure.xlsx
+++ b/Document/Structure.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
     <sheet name="Diagram" sheetId="3" r:id="rId2"/>
     <sheet name="Note" sheetId="2" r:id="rId3"/>
+    <sheet name="Logic" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="131">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,23 +466,59 @@
   <si>
     <t>EF是否存在注入的问题？需要测试一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login Logic</t>
+  </si>
+  <si>
+    <t>Check user exist</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Check user password</t>
+  </si>
+  <si>
+    <t>Check IsLock</t>
+  </si>
+  <si>
+    <t>Check Lock type</t>
+  </si>
+  <si>
+    <t>Email lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resend the email </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Check IsDelete</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Your account has been deleted.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -489,7 +526,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -497,7 +534,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -538,12 +575,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,6 +769,361 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="552450"/>
+          <a:ext cx="9525" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="1733550"/>
+          <a:ext cx="9525" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="2857500"/>
+          <a:ext cx="9525" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="3971925"/>
+          <a:ext cx="9525" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="2876550"/>
+          <a:ext cx="904875" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4238625" y="4010025"/>
+          <a:ext cx="19050" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4324350" y="4048125"/>
+          <a:ext cx="1238250" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1035,20 +1428,20 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1076,7 +1469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1090,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1126,7 +1519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1134,38 +1527,38 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1197,7 +1590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1229,7 +1622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1261,7 +1654,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,7 +1680,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1310,7 +1703,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1327,7 +1720,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1344,7 +1737,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1358,22 +1751,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1393,18 +1786,18 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14">
       <c r="B10" s="3" t="s">
         <v>97</v>
       </c>
@@ -1424,7 +1817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14">
       <c r="B11" s="4" t="s">
         <v>98</v>
       </c>
@@ -1445,7 +1838,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14">
       <c r="B12" s="4" t="s">
         <v>99</v>
       </c>
@@ -1466,7 +1859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14">
       <c r="B13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1484,7 +1877,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14">
       <c r="B14" s="4" t="s">
         <v>100</v>
       </c>
@@ -1502,7 +1895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14">
       <c r="B15" s="4" t="s">
         <v>94</v>
       </c>
@@ -1512,7 +1905,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14">
       <c r="B16" s="4" t="s">
         <v>101</v>
       </c>
@@ -1522,7 +1915,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16">
       <c r="B17" s="4" t="s">
         <v>92</v>
       </c>
@@ -1535,7 +1928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16">
       <c r="B18" s="4" t="s">
         <v>102</v>
       </c>
@@ -1547,7 +1940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16">
       <c r="B19" s="4" t="s">
         <v>103</v>
       </c>
@@ -1559,7 +1952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16">
       <c r="H20" s="1"/>
       <c r="L20" s="4" t="s">
         <v>116</v>
@@ -1568,24 +1961,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16">
       <c r="H21" s="1"/>
       <c r="N21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:16">
       <c r="H22" s="1"/>
       <c r="N22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="N23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="J29" s="3" t="s">
         <v>52</v>
       </c>
@@ -1599,7 +1992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="J30" s="4" t="s">
         <v>1</v>
       </c>
@@ -1613,7 +2006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16">
       <c r="J31" s="4" t="s">
         <v>54</v>
       </c>
@@ -1627,7 +2020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="J32" s="4" t="s">
         <v>107</v>
       </c>
@@ -1641,7 +2034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="10:14">
       <c r="J33" s="4" t="s">
         <v>108</v>
       </c>
@@ -1652,7 +2045,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="10:14">
       <c r="J34" s="4" t="s">
         <v>105</v>
       </c>
@@ -1663,7 +2056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="10:14">
       <c r="J35" s="4" t="s">
         <v>109</v>
       </c>
@@ -1671,32 +2064,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="10:14">
       <c r="L36" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="10:14">
       <c r="L37" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="10:14">
       <c r="L38" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="10:14">
       <c r="L39" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="10:14">
       <c r="L40" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="10:14">
       <c r="L41" s="4" t="s">
         <v>25</v>
       </c>
@@ -1711,15 +2104,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1727,7 +2120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1735,7 +2128,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1743,7 +2136,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1751,7 +2144,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1759,7 +2152,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1767,7 +2160,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1775,7 +2168,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1783,7 +2176,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1791,7 +2184,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1799,16 +2192,114 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>118</v>
       </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="C3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="I23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="G26" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="I27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/Structure.xlsx
+++ b/Document/Structure.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
     <sheet name="Diagram" sheetId="3" r:id="rId2"/>
     <sheet name="Note" sheetId="2" r:id="rId3"/>
-    <sheet name="Logic" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="119">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,42 +465,6 @@
   <si>
     <t>EF是否存在注入的问题？需要测试一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login Logic</t>
-  </si>
-  <si>
-    <t>Check user exist</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Check user password</t>
-  </si>
-  <si>
-    <t>Check IsLock</t>
-  </si>
-  <si>
-    <t>Check Lock type</t>
-  </si>
-  <si>
-    <t>Email lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resend the email </t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Check IsDelete</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Your account has been deleted.</t>
   </si>
 </sst>
 </file>
@@ -575,13 +538,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,361 +731,6 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1704975" y="552450"/>
-          <a:ext cx="9525" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1752600" y="1733550"/>
-          <a:ext cx="9525" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1895475" y="2857500"/>
-          <a:ext cx="9525" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1800225" y="3971925"/>
-          <a:ext cx="9525" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2943225" y="2876550"/>
-          <a:ext cx="904875" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4238625" y="4010025"/>
-          <a:ext cx="19050" cy="790575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4324350" y="4048125"/>
-          <a:ext cx="1238250" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2106,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2207,99 +1814,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="C3" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="D6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="D12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="18" spans="3:9">
-      <c r="D18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9">
-      <c r="C21" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="I23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9">
-      <c r="D24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9">
-      <c r="G26" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9">
-      <c r="C27" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="I27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Document/Structure.xlsx
+++ b/Document/Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="121">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,6 +464,14 @@
   </si>
   <si>
     <t>EF是否存在注入的问题？需要测试一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log加入编号，并且有个页面能读取出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加文章的时候没有类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,17 +479,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -489,7 +497,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -497,7 +505,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1035,20 +1043,20 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1076,7 +1084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1090,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1126,7 +1134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1134,38 +1142,38 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1197,7 +1205,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1229,7 +1237,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1261,7 +1269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,7 +1295,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1310,7 +1318,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1327,7 +1335,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1344,7 +1352,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1358,22 +1366,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1393,18 +1401,18 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>97</v>
       </c>
@@ -1424,7 +1432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>98</v>
       </c>
@@ -1445,7 +1453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>99</v>
       </c>
@@ -1466,7 +1474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1484,7 +1492,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>100</v>
       </c>
@@ -1502,7 +1510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>94</v>
       </c>
@@ -1512,7 +1520,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>101</v>
       </c>
@@ -1522,7 +1530,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>92</v>
       </c>
@@ -1535,7 +1543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>102</v>
       </c>
@@ -1547,7 +1555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>103</v>
       </c>
@@ -1559,7 +1567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H20" s="1"/>
       <c r="L20" s="4" t="s">
         <v>116</v>
@@ -1568,24 +1576,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H21" s="1"/>
       <c r="N21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H22" s="1"/>
       <c r="N22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="N23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J29" s="3" t="s">
         <v>52</v>
       </c>
@@ -1599,7 +1607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J30" s="4" t="s">
         <v>1</v>
       </c>
@@ -1613,7 +1621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J31" s="4" t="s">
         <v>54</v>
       </c>
@@ -1627,7 +1635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J32" s="4" t="s">
         <v>107</v>
       </c>
@@ -1641,7 +1649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="10:14">
+    <row r="33" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J33" s="4" t="s">
         <v>108</v>
       </c>
@@ -1652,7 +1660,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="10:14">
+    <row r="34" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J34" s="4" t="s">
         <v>105</v>
       </c>
@@ -1663,7 +1671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="10:14">
+    <row r="35" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J35" s="4" t="s">
         <v>109</v>
       </c>
@@ -1671,32 +1679,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="10:14">
+    <row r="36" spans="10:14" x14ac:dyDescent="0.25">
       <c r="L36" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="10:14">
+    <row r="37" spans="10:14" x14ac:dyDescent="0.25">
       <c r="L37" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="10:14">
+    <row r="38" spans="10:14" x14ac:dyDescent="0.25">
       <c r="L38" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="10:14">
+    <row r="39" spans="10:14" x14ac:dyDescent="0.25">
       <c r="L39" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="10:14">
+    <row r="40" spans="10:14" x14ac:dyDescent="0.25">
       <c r="L40" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="10:14">
+    <row r="41" spans="10:14" x14ac:dyDescent="0.25">
       <c r="L41" s="4" t="s">
         <v>25</v>
       </c>
@@ -1711,15 +1719,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1727,7 +1735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1735,7 +1743,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1743,7 +1751,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1751,7 +1759,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1759,7 +1767,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1767,7 +1775,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1775,7 +1783,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1783,7 +1791,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1791,7 +1799,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1799,7 +1807,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1807,8 +1815,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/Structure.xlsx
+++ b/Document/Structure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,6 +472,10 @@
   </si>
   <si>
     <t>添加文章的时候没有类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页显示文章的时候，需要判断这个人是不是被lock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1046,13 +1050,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1401,18 +1405,18 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>97</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>98</v>
       </c>
@@ -1453,7 +1457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>99</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1492,7 +1496,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>100</v>
       </c>
@@ -1510,7 +1514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>94</v>
       </c>
@@ -1520,7 +1524,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B16" s="4" t="s">
         <v>101</v>
       </c>
@@ -1530,7 +1534,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17" s="4" t="s">
         <v>92</v>
       </c>
@@ -1543,7 +1547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>102</v>
       </c>
@@ -1555,7 +1559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>103</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H20" s="1"/>
       <c r="L20" s="4" t="s">
         <v>116</v>
@@ -1576,24 +1580,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H21" s="1"/>
       <c r="N21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
       <c r="H22" s="1"/>
       <c r="N22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
       <c r="N23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
       <c r="J29" s="3" t="s">
         <v>52</v>
       </c>
@@ -1607,7 +1611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
       <c r="J30" s="4" t="s">
         <v>1</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
       <c r="J31" s="4" t="s">
         <v>54</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
       <c r="J32" s="4" t="s">
         <v>107</v>
       </c>
@@ -1649,7 +1653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J33" s="4" t="s">
         <v>108</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J34" s="4" t="s">
         <v>105</v>
       </c>
@@ -1671,7 +1675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:14" x14ac:dyDescent="0.15">
       <c r="J35" s="4" t="s">
         <v>109</v>
       </c>
@@ -1679,32 +1683,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:14" x14ac:dyDescent="0.15">
       <c r="L36" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:14" x14ac:dyDescent="0.15">
       <c r="L37" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:14" x14ac:dyDescent="0.15">
       <c r="L38" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:14" x14ac:dyDescent="0.15">
       <c r="L39" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:14" x14ac:dyDescent="0.15">
       <c r="L40" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:14" x14ac:dyDescent="0.15">
       <c r="L41" s="4" t="s">
         <v>25</v>
       </c>
@@ -1719,15 +1723,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1743,7 +1747,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1751,7 +1755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1759,7 +1763,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1775,7 +1779,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1799,7 +1803,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1815,7 +1819,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>13</v>
       </c>
@@ -1823,12 +1827,20 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Structure.xlsx
+++ b/Document/Structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,23 +477,26 @@
   <si>
     <t>首页显示文章的时候，需要判断这个人是不是被lock</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册之后跳到首页没有session</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -501,7 +504,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -509,7 +512,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1047,20 +1050,20 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1146,38 +1149,38 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1370,22 +1373,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1405,18 +1408,18 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14">
       <c r="B10" s="3" t="s">
         <v>97</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14">
       <c r="B11" s="4" t="s">
         <v>98</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14">
       <c r="B12" s="4" t="s">
         <v>99</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14">
       <c r="B13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1496,7 +1499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14">
       <c r="B14" s="4" t="s">
         <v>100</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14">
       <c r="B15" s="4" t="s">
         <v>94</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14">
       <c r="B16" s="4" t="s">
         <v>101</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:16">
       <c r="B17" s="4" t="s">
         <v>92</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:16">
       <c r="B18" s="4" t="s">
         <v>102</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:16">
       <c r="B19" s="4" t="s">
         <v>103</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:16">
       <c r="H20" s="1"/>
       <c r="L20" s="4" t="s">
         <v>116</v>
@@ -1580,24 +1583,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:16">
       <c r="H21" s="1"/>
       <c r="N21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:16">
       <c r="H22" s="1"/>
       <c r="N22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:16">
       <c r="N23" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:16">
       <c r="J29" s="3" t="s">
         <v>52</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:16">
       <c r="J30" s="4" t="s">
         <v>1</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:16">
       <c r="J31" s="4" t="s">
         <v>54</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:16">
       <c r="J32" s="4" t="s">
         <v>107</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="10:14">
       <c r="J33" s="4" t="s">
         <v>108</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="10:14">
       <c r="J34" s="4" t="s">
         <v>105</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="10:14">
       <c r="J35" s="4" t="s">
         <v>109</v>
       </c>
@@ -1683,32 +1686,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="10:14">
       <c r="L36" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="10:14">
       <c r="L37" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="10:14">
       <c r="L38" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="10:14">
       <c r="L39" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="10:14">
       <c r="L40" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="10:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="10:14">
       <c r="L41" s="4" t="s">
         <v>25</v>
       </c>
@@ -1723,15 +1726,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1739,7 +1742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>11</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>12</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>13</v>
       </c>
@@ -1827,7 +1830,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1835,12 +1838,20 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Document/Structure.xlsx
+++ b/Document/Structure.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
     <sheet name="Diagram" sheetId="3" r:id="rId2"/>
     <sheet name="Note" sheetId="2" r:id="rId3"/>
+    <sheet name="Test" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="127">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -480,6 +481,18 @@
   </si>
   <si>
     <t>注册之后跳到首页没有session</t>
+  </si>
+  <si>
+    <t>注册：</t>
+  </si>
+  <si>
+    <t>Ajax验证，验证通过跳到登录页面</t>
+  </si>
+  <si>
+    <t>登录：</t>
+  </si>
+  <si>
+    <t>后台验证，验证通过，加入session，并且跳到Article主页</t>
   </si>
 </sst>
 </file>
@@ -1728,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1858,4 +1871,35 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>